--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>AZAROVA</t>
   </si>
@@ -75,18 +75,12 @@
     <t>NOT DETECTED</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>dateResult</t>
   </si>
   <si>
     <t>passport</t>
   </si>
   <si>
-    <t>dateButrh</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -96,49 +90,31 @@
     <t>N</t>
   </si>
   <si>
-    <t xml:space="preserve">numberReport </t>
-  </si>
-  <si>
     <t>numberProduction</t>
   </si>
   <si>
-    <t>15-30</t>
-  </si>
-  <si>
-    <t>15.30</t>
-  </si>
-  <si>
-    <t>15/30</t>
-  </si>
-  <si>
-    <t>LARISA</t>
-  </si>
-  <si>
-    <t>NAFIKOVA</t>
-  </si>
-  <si>
-    <t>SEMENOV</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>OLGA</t>
-  </si>
-  <si>
-    <t>SEMENOVA</t>
-  </si>
-  <si>
-    <t>MURZINA</t>
+    <t>dateBirth</t>
+  </si>
+  <si>
+    <t>numberReport</t>
+  </si>
+  <si>
+    <t>TUKTAROV</t>
+  </si>
+  <si>
+    <t>ARTUR</t>
+  </si>
+  <si>
+    <t>TUKTAROVA</t>
+  </si>
+  <si>
+    <t>GUZEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,39 +228,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,168 +550,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="12">
-        <v>23819</v>
-      </c>
-      <c r="E2" s="8">
-        <v>722716392</v>
-      </c>
-      <c r="F2" s="9">
-        <v>44373</v>
-      </c>
-      <c r="G2" s="19">
-        <v>0.5625</v>
-      </c>
-      <c r="H2" s="10">
-        <v>8652</v>
-      </c>
-      <c r="I2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8">
+        <v>31609</v>
+      </c>
+      <c r="E2" s="13">
+        <v>755195663</v>
+      </c>
+      <c r="F2" s="8">
+        <v>44389</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1492</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="12">
-        <v>23702</v>
-      </c>
-      <c r="E3" s="8">
-        <v>753813965</v>
-      </c>
-      <c r="F3" s="9">
-        <v>44373</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="10">
-        <v>8653</v>
-      </c>
-      <c r="I3" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12">
-        <v>30233</v>
-      </c>
-      <c r="E4" s="17">
-        <v>731106400</v>
-      </c>
-      <c r="F4" s="9">
-        <v>44372</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10">
-        <v>8655</v>
-      </c>
-      <c r="I4" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12">
-        <v>27228</v>
-      </c>
-      <c r="E5" s="17">
-        <v>732923457</v>
-      </c>
-      <c r="F5" s="9">
-        <v>44372</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="C3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10">
-        <v>8656</v>
-      </c>
-      <c r="I5" s="8">
-        <v>3</v>
+      <c r="D3" s="8">
+        <v>32854</v>
+      </c>
+      <c r="E3" s="13">
+        <v>755408572</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44389</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1493</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -1,22 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dateBirth</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>dateResult</t>
+  </si>
+  <si>
+    <t>numberReport</t>
+  </si>
+  <si>
+    <t>numberProduction</t>
+  </si>
+  <si>
+    <t>TUKTAROV</t>
+  </si>
+  <si>
+    <t>ARTUR</t>
+  </si>
+  <si>
+    <t>TUKTAROVA</t>
+  </si>
+  <si>
+    <t>GUZEL</t>
+  </si>
+  <si>
+    <t>MAKHMUDJANOVA</t>
+  </si>
+  <si>
+    <t>LOLA</t>
+  </si>
+  <si>
+    <t>FA2106113</t>
+  </si>
+  <si>
+    <t>MAKHMUDJANOV</t>
+  </si>
+  <si>
+    <t>FAZIL</t>
+  </si>
+  <si>
+    <t>FA0307389</t>
+  </si>
   <si>
     <t>AZAROVA</t>
   </si>
@@ -24,6 +83,9 @@
     <t>IRINA</t>
   </si>
   <si>
+    <t>NOT DETECTED</t>
+  </si>
+  <si>
     <t>BIGANIAKOVA</t>
   </si>
   <si>
@@ -70,45 +132,6 @@
   </si>
   <si>
     <t>PAVEL</t>
-  </si>
-  <si>
-    <t>NOT DETECTED</t>
-  </si>
-  <si>
-    <t>dateResult</t>
-  </si>
-  <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>numberProduction</t>
-  </si>
-  <si>
-    <t>dateBirth</t>
-  </si>
-  <si>
-    <t>numberReport</t>
-  </si>
-  <si>
-    <t>TUKTAROV</t>
-  </si>
-  <si>
-    <t>ARTUR</t>
-  </si>
-  <si>
-    <t>TUKTAROVA</t>
-  </si>
-  <si>
-    <t>GUZEL</t>
   </si>
 </sst>
 </file>
@@ -118,26 +141,17 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -146,14 +160,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,8 +184,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFCD5B5"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,31 +199,31 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA6A6A6"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA6A6A6"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA6A6A6"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA6A6A6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -212,42 +231,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,6 +278,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFCD5B5"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFA6A6A6"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -550,105 +641,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>24</v>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
         <v>31609</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="7">
         <v>755195663</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>44389</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>1492</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
         <v>32854</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>755408572</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>44389</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>1493</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>23158</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44389</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1494</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>21751</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44389</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1495</v>
+      </c>
+      <c r="H5" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -656,275 +800,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="9">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4">
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11">
         <v>22339</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="10">
         <v>725658321</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="12">
         <v>44348</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="9">
         <v>4772</v>
       </c>
-      <c r="H1" s="2">
-        <v>1</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>18</v>
+      <c r="H1" s="9">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="9">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11">
+        <v>29121</v>
+      </c>
+      <c r="E2" s="10">
+        <v>724799986</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44351</v>
+      </c>
+      <c r="G2" s="9">
+        <v>4773</v>
+      </c>
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>29121</v>
-      </c>
-      <c r="E2" s="3">
-        <v>724799986</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11">
+        <v>28654</v>
+      </c>
+      <c r="E3" s="10">
+        <v>731098125</v>
+      </c>
+      <c r="F3" s="12">
         <v>44351</v>
       </c>
-      <c r="G2" s="2">
-        <v>4773</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G3" s="9">
+        <v>4774</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11">
+        <v>22475</v>
+      </c>
+      <c r="E4" s="10">
+        <v>736990475</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44351</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5780</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11">
+        <v>23537</v>
+      </c>
+      <c r="E5" s="10">
+        <v>759304237</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44356</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5781</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11">
+        <v>23118</v>
+      </c>
+      <c r="E6" s="10">
+        <v>762589066</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44357</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5782</v>
+      </c>
+      <c r="H6" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>28654</v>
-      </c>
-      <c r="E3" s="3">
-        <v>731098125</v>
-      </c>
-      <c r="F3" s="5">
-        <v>44351</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4774</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4">
-        <v>22475</v>
-      </c>
-      <c r="E4" s="3">
-        <v>736990475</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44351</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5780</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="I6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11">
+        <v>31892</v>
+      </c>
+      <c r="E7" s="10">
+        <v>751264335</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44358</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5783</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
-        <v>23537</v>
-      </c>
-      <c r="E5" s="3">
-        <v>759304237</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44356</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5781</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11">
+        <v>40172</v>
+      </c>
+      <c r="E8" s="10">
+        <v>760549507</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44358</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6890</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
-        <v>23118</v>
-      </c>
-      <c r="E6" s="3">
-        <v>762589066</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44357</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5782</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>31892</v>
-      </c>
-      <c r="E7" s="3">
-        <v>751264335</v>
-      </c>
-      <c r="F7" s="5">
-        <v>44358</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5783</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <v>40172</v>
-      </c>
-      <c r="E8" s="3">
-        <v>760549507</v>
-      </c>
-      <c r="F8" s="5">
-        <v>44358</v>
-      </c>
-      <c r="G8" s="2">
-        <v>6890</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11">
         <v>29787</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="10">
         <v>658875275</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="12">
         <v>44359</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="9">
         <v>6895</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>18</v>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -932,129 +1080,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="9">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11">
+        <v>29121</v>
+      </c>
+      <c r="E1" s="10">
+        <v>724799986</v>
+      </c>
+      <c r="F1" s="12">
+        <v>44351</v>
+      </c>
+      <c r="G1" s="9">
+        <v>4773</v>
+      </c>
+      <c r="H1" s="9">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4">
-        <v>29121</v>
-      </c>
-      <c r="E1" s="3">
-        <v>724799986</v>
-      </c>
-      <c r="F1" s="5">
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11">
+        <v>28654</v>
+      </c>
+      <c r="E2" s="10">
+        <v>731098125</v>
+      </c>
+      <c r="F2" s="12">
         <v>44351</v>
       </c>
-      <c r="G1" s="2">
-        <v>4773</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="9">
+        <v>4774</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
-        <v>28654</v>
-      </c>
-      <c r="E2" s="3">
-        <v>731098125</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11">
+        <v>22475</v>
+      </c>
+      <c r="E3" s="10">
+        <v>736990475</v>
+      </c>
+      <c r="F3" s="12">
         <v>44351</v>
       </c>
-      <c r="G2" s="2">
-        <v>4774</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="9">
+        <v>5780</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>22475</v>
-      </c>
-      <c r="E3" s="3">
-        <v>736990475</v>
-      </c>
-      <c r="F3" s="5">
-        <v>44351</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5780</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11">
         <v>23537</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="10">
         <v>759304237</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="12">
         <v>44356</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>5781</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -47,91 +47,85 @@
     <t>numberProduction</t>
   </si>
   <si>
-    <t>TUKTAROV</t>
-  </si>
-  <si>
-    <t>ARTUR</t>
-  </si>
-  <si>
-    <t>TUKTAROVA</t>
+    <t>AZAROVA</t>
+  </si>
+  <si>
+    <t>IRINA</t>
+  </si>
+  <si>
+    <t>NOT DETECTED</t>
+  </si>
+  <si>
+    <t>BIGANIAKOVA</t>
+  </si>
+  <si>
+    <t>AIGUL</t>
+  </si>
+  <si>
+    <t>EFIMOVA</t>
+  </si>
+  <si>
+    <t>SULPAN</t>
+  </si>
+  <si>
+    <t>KITANOVA</t>
+  </si>
+  <si>
+    <t>LIUDMILA</t>
+  </si>
+  <si>
+    <t>LOKTEV</t>
+  </si>
+  <si>
+    <t>SERGEI</t>
+  </si>
+  <si>
+    <t>SULTANOV</t>
+  </si>
+  <si>
+    <t>RAMIL</t>
+  </si>
+  <si>
+    <t>SULTANOVA</t>
+  </si>
+  <si>
+    <t>MARIIA</t>
+  </si>
+  <si>
+    <t>ARDASHIROV</t>
+  </si>
+  <si>
+    <t>LEV</t>
+  </si>
+  <si>
+    <t>BAZHANOV</t>
+  </si>
+  <si>
+    <t>PAVEL</t>
+  </si>
+  <si>
+    <t>SAZONOV</t>
+  </si>
+  <si>
+    <t>ALEKSEI</t>
+  </si>
+  <si>
+    <t>ARSLANOVA</t>
   </si>
   <si>
     <t>GUZEL</t>
   </si>
   <si>
-    <t>MAKHMUDJANOVA</t>
-  </si>
-  <si>
-    <t>LOLA</t>
-  </si>
-  <si>
-    <t>FA2106113</t>
-  </si>
-  <si>
-    <t>MAKHMUDJANOV</t>
-  </si>
-  <si>
-    <t>FAZIL</t>
-  </si>
-  <si>
-    <t>FA0307389</t>
-  </si>
-  <si>
-    <t>AZAROVA</t>
-  </si>
-  <si>
-    <t>IRINA</t>
-  </si>
-  <si>
-    <t>NOT DETECTED</t>
-  </si>
-  <si>
-    <t>BIGANIAKOVA</t>
-  </si>
-  <si>
-    <t>AIGUL</t>
-  </si>
-  <si>
-    <t>EFIMOVA</t>
-  </si>
-  <si>
-    <t>SULPAN</t>
-  </si>
-  <si>
-    <t>KITANOVA</t>
-  </si>
-  <si>
-    <t>LIUDMILA</t>
-  </si>
-  <si>
-    <t>LOKTEV</t>
-  </si>
-  <si>
-    <t>SERGEI</t>
-  </si>
-  <si>
-    <t>SULTANOV</t>
-  </si>
-  <si>
-    <t>RAMIL</t>
-  </si>
-  <si>
-    <t>SULTANOVA</t>
-  </si>
-  <si>
-    <t>MARIIA</t>
-  </si>
-  <si>
-    <t>ARDASHIROV</t>
-  </si>
-  <si>
-    <t>LEV</t>
-  </si>
-  <si>
-    <t>BAZHANOV</t>
-  </si>
-  <si>
-    <t>PAVEL</t>
+    <t>KHAMITOVA</t>
+  </si>
+  <si>
+    <t>LENIZA</t>
+  </si>
+  <si>
+    <t>MITIAEVA</t>
+  </si>
+  <si>
+    <t>ARINA</t>
   </si>
 </sst>
 </file>
@@ -189,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -213,6 +207,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFA6A6A6"/>
       </left>
@@ -231,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,34 +251,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -641,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +662,8 @@
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="9" max="1009" width="8.5703125" customWidth="1"/>
+    <col min="1010" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,22 +697,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6">
-        <v>31609</v>
+        <v>28307</v>
       </c>
       <c r="E2" s="7">
-        <v>755195663</v>
+        <v>731657078</v>
       </c>
       <c r="F2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="G2" s="8">
-        <v>1492</v>
+        <v>4365</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -717,77 +723,207 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6">
-        <v>32854</v>
+        <v>28308</v>
       </c>
       <c r="E3" s="7">
-        <v>755408572</v>
+        <v>725529500</v>
       </c>
       <c r="F3" s="6">
-        <v>44389</v>
+        <v>44397</v>
       </c>
       <c r="G3" s="8">
-        <v>1493</v>
+        <v>4366</v>
       </c>
       <c r="H3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>13</v>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="6">
-        <v>23158</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>14</v>
+        <v>28309</v>
+      </c>
+      <c r="E4" s="7">
+        <v>658442537</v>
       </c>
       <c r="F4" s="6">
-        <v>44389</v>
+        <v>44398</v>
       </c>
       <c r="G4" s="8">
-        <v>1494</v>
+        <v>4367</v>
       </c>
       <c r="H4" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>16</v>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="6">
-        <v>21751</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>17</v>
+        <v>28310</v>
+      </c>
+      <c r="E5" s="7">
+        <v>722836714</v>
       </c>
       <c r="F5" s="6">
-        <v>44389</v>
+        <v>44399</v>
       </c>
       <c r="G5" s="8">
-        <v>1495</v>
+        <v>4368</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6">
+        <v>28311</v>
+      </c>
+      <c r="E6" s="7">
+        <v>699576797.66666698</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44400</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4369</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6">
+        <v>28312</v>
+      </c>
+      <c r="E7" s="7">
+        <v>698230404.66666698</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44401</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4370</v>
+      </c>
+      <c r="H7" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6">
+        <v>28313</v>
+      </c>
+      <c r="E8" s="7">
+        <v>696884011.66666698</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44402</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4371</v>
+      </c>
+      <c r="H8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6">
+        <v>28314</v>
+      </c>
+      <c r="E9" s="7">
+        <v>695537618.66666698</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44403</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4372</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6">
+        <v>28315</v>
+      </c>
+      <c r="E10" s="7">
+        <v>694191225.66666698</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44404</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4373</v>
+      </c>
+      <c r="H10" s="8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +937,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,10 +950,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="11">
         <v>22339</v>
@@ -835,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -843,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2" s="11">
         <v>29121</v>
@@ -864,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -872,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11">
         <v>28654</v>
@@ -893,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -901,10 +1037,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11">
         <v>22475</v>
@@ -922,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -930,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11">
         <v>23537</v>
@@ -951,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -959,10 +1095,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="11">
         <v>23118</v>
@@ -980,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -988,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11">
         <v>31892</v>
@@ -1009,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1017,10 +1153,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11">
         <v>40172</v>
@@ -1038,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1046,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11">
         <v>29787</v>
@@ -1067,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1217,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" s="11">
         <v>29121</v>
@@ -1115,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1123,10 +1259,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2" s="11">
         <v>28654</v>
@@ -1144,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1152,10 +1288,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11">
         <v>22475</v>
@@ -1173,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1181,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11">
         <v>23537</v>
@@ -1202,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -104,28 +104,31 @@
     <t>PAVEL</t>
   </si>
   <si>
-    <t>SAZONOV</t>
-  </si>
-  <si>
-    <t>ALEKSEI</t>
-  </si>
-  <si>
-    <t>ARSLANOVA</t>
-  </si>
-  <si>
-    <t>GUZEL</t>
-  </si>
-  <si>
-    <t>KHAMITOVA</t>
-  </si>
-  <si>
-    <t>LENIZA</t>
-  </si>
-  <si>
-    <t>MITIAEVA</t>
-  </si>
-  <si>
-    <t>ARINA</t>
+    <t>VIKTORIIA</t>
+  </si>
+  <si>
+    <t>TITOROVA</t>
+  </si>
+  <si>
+    <t>ALEKSEEV</t>
+  </si>
+  <si>
+    <t>DMITRII</t>
+  </si>
+  <si>
+    <t>PESTENKOVA</t>
+  </si>
+  <si>
+    <t>VERONIKA</t>
+  </si>
+  <si>
+    <t>PESTENKOV</t>
+  </si>
+  <si>
+    <t>SOFIIA</t>
+  </si>
+  <si>
+    <t>SEMEN</t>
   </si>
 </sst>
 </file>
@@ -646,18 +649,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
@@ -697,22 +700,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6">
-        <v>28307</v>
+        <v>36912</v>
       </c>
       <c r="E2" s="7">
-        <v>731657078</v>
+        <v>658444528</v>
       </c>
       <c r="F2" s="6">
-        <v>44396</v>
+        <v>44407</v>
       </c>
       <c r="G2" s="8">
-        <v>4365</v>
+        <v>5147</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -723,25 +726,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6">
-        <v>28308</v>
+        <v>36735</v>
       </c>
       <c r="E3" s="7">
-        <v>725529500</v>
+        <v>754160295</v>
       </c>
       <c r="F3" s="6">
-        <v>44397</v>
+        <v>44407</v>
       </c>
       <c r="G3" s="8">
-        <v>4366</v>
+        <v>5148</v>
       </c>
       <c r="H3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -749,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6">
-        <v>28309</v>
+        <v>32242</v>
       </c>
       <c r="E4" s="7">
-        <v>658442537</v>
+        <v>655387753</v>
       </c>
       <c r="F4" s="6">
-        <v>44398</v>
+        <v>44407</v>
       </c>
       <c r="G4" s="8">
-        <v>4367</v>
+        <v>5149</v>
       </c>
       <c r="H4" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,25 +778,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
-        <v>28310</v>
+        <v>40268</v>
       </c>
       <c r="E5" s="7">
-        <v>722836714</v>
+        <v>655388057</v>
       </c>
       <c r="F5" s="6">
-        <v>44399</v>
+        <v>44407</v>
       </c>
       <c r="G5" s="8">
-        <v>4368</v>
+        <v>5150</v>
       </c>
       <c r="H5" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -801,129 +804,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6">
-        <v>28311</v>
+        <v>31477</v>
       </c>
       <c r="E6" s="7">
-        <v>699576797.66666698</v>
+        <v>655389126</v>
       </c>
       <c r="F6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="G6" s="8">
-        <v>4369</v>
+        <v>5151</v>
       </c>
       <c r="H6" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6">
-        <v>28312</v>
-      </c>
-      <c r="E7" s="7">
-        <v>698230404.66666698</v>
-      </c>
-      <c r="F7" s="6">
-        <v>44401</v>
-      </c>
-      <c r="G7" s="8">
-        <v>4370</v>
-      </c>
-      <c r="H7" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6">
-        <v>28313</v>
-      </c>
-      <c r="E8" s="7">
-        <v>696884011.66666698</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44402</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4371</v>
-      </c>
-      <c r="H8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6">
-        <v>28314</v>
-      </c>
-      <c r="E9" s="7">
-        <v>695537618.66666698</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44403</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4372</v>
-      </c>
-      <c r="H9" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6">
-        <v>28315</v>
-      </c>
-      <c r="E10" s="7">
-        <v>694191225.66666698</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44404</v>
-      </c>
-      <c r="G10" s="8">
-        <v>4373</v>
-      </c>
-      <c r="H10" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -45,10 +45,10 @@
     <t>numberProduction</t>
   </si>
   <si>
-    <t>VETROVA</t>
-  </si>
-  <si>
-    <t>KRISTINA</t>
+    <t>IVANOV</t>
+  </si>
+  <si>
+    <t>IVAN</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,52 +596,16 @@
         <v>31435</v>
       </c>
       <c r="E2" s="7">
-        <v>723036072</v>
+        <v>721234567</v>
       </c>
       <c r="F2" s="6">
-        <v>44411</v>
+        <v>44258</v>
       </c>
       <c r="G2" s="8">
         <v>8441</v>
       </c>
       <c r="H2" s="8">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6">
-        <v>44411</v>
-      </c>
-      <c r="G3" s="8">
-        <v>8442</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6">
-        <v>44411</v>
-      </c>
-      <c r="G4" s="8">
-        <v>8443</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -45,10 +45,16 @@
     <t>numberProduction</t>
   </si>
   <si>
-    <t>FATKHULOVA</t>
-  </si>
-  <si>
-    <t>DINA</t>
+    <t>GAIFULLIN</t>
+  </si>
+  <si>
+    <t>ILNUR</t>
+  </si>
+  <si>
+    <t>RADIK</t>
+  </si>
+  <si>
+    <t>KARABAEV</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,16 +599,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>29371</v>
+        <v>41390</v>
       </c>
       <c r="E2" s="7">
-        <v>751112233</v>
+        <v>760556613</v>
       </c>
       <c r="F2" s="6">
-        <v>44409</v>
+        <v>44424</v>
       </c>
       <c r="G2" s="8">
-        <v>5000</v>
+        <v>5478</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -613,22 +619,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>29372</v>
+        <v>28147</v>
       </c>
       <c r="E3" s="7">
-        <v>751112234</v>
+        <v>661237731</v>
       </c>
       <c r="F3" s="6">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="G3" s="8">
-        <v>5000</v>
+        <v>5479</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>

--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -45,16 +45,28 @@
     <t>numberProduction</t>
   </si>
   <si>
-    <t>GAIFULLIN</t>
-  </si>
-  <si>
-    <t>ILNUR</t>
-  </si>
-  <si>
-    <t>RADIK</t>
-  </si>
-  <si>
-    <t>KARABAEV</t>
+    <t>FEDOROVA</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>IDRISOV</t>
+  </si>
+  <si>
+    <t>RAMIL</t>
+  </si>
+  <si>
+    <t>GUBAIDULLIN</t>
+  </si>
+  <si>
+    <t>RINAT</t>
+  </si>
+  <si>
+    <t>KLIMOVA</t>
+  </si>
+  <si>
+    <t>EVGENIIA</t>
   </si>
 </sst>
 </file>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,16 +611,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>41390</v>
+        <v>31652</v>
       </c>
       <c r="E2" s="7">
-        <v>760556613</v>
+        <v>753263583</v>
       </c>
       <c r="F2" s="6">
-        <v>44424</v>
+        <v>44428</v>
       </c>
       <c r="G2" s="8">
-        <v>5478</v>
+        <v>7084</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -619,24 +631,76 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="6">
-        <v>28147</v>
+        <v>29573</v>
       </c>
       <c r="E3" s="7">
-        <v>661237731</v>
+        <v>733439572</v>
       </c>
       <c r="F3" s="6">
-        <v>44424</v>
+        <v>44428</v>
       </c>
       <c r="G3" s="8">
-        <v>5479</v>
+        <v>7085</v>
       </c>
       <c r="H3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>28469</v>
+      </c>
+      <c r="E4" s="7">
+        <v>733171443</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44428</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7086</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>25710</v>
+      </c>
+      <c r="E5" s="7">
+        <v>757280591</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44428</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7087</v>
+      </c>
+      <c r="H5" s="8">
         <v>1</v>
       </c>
     </row>

--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -43,30 +43,6 @@
   </si>
   <si>
     <t>numberProduction</t>
-  </si>
-  <si>
-    <t>FEDOROVA</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>IDRISOV</t>
-  </si>
-  <si>
-    <t>RAMIL</t>
-  </si>
-  <si>
-    <t>GUBAIDULLIN</t>
-  </si>
-  <si>
-    <t>RINAT</t>
-  </si>
-  <si>
-    <t>KLIMOVA</t>
-  </si>
-  <si>
-    <t>EVGENIIA</t>
   </si>
 </sst>
 </file>
@@ -557,7 +533,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,23 +580,15 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6">
-        <v>31652</v>
-      </c>
-      <c r="E2" s="7">
-        <v>753263583</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="6">
-        <v>44428</v>
+        <v>44466</v>
       </c>
       <c r="G2" s="8">
-        <v>7084</v>
+        <v>1710</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -630,23 +598,15 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6">
-        <v>29573</v>
-      </c>
-      <c r="E3" s="7">
-        <v>733439572</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="6">
-        <v>44428</v>
+        <v>44466</v>
       </c>
       <c r="G3" s="8">
-        <v>7085</v>
+        <v>1711</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -656,23 +616,15 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6">
-        <v>28469</v>
-      </c>
-      <c r="E4" s="7">
-        <v>733171443</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="6">
-        <v>44428</v>
+        <v>44473</v>
       </c>
       <c r="G4" s="8">
-        <v>7086</v>
+        <v>2371</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
@@ -682,23 +634,15 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>25710</v>
-      </c>
-      <c r="E5" s="7">
-        <v>757280591</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="6">
-        <v>44428</v>
+        <v>44473</v>
       </c>
       <c r="G5" s="8">
-        <v>7087</v>
+        <v>2372</v>
       </c>
       <c r="H5" s="8">
         <v>1</v>

--- a/CoV.xlsx
+++ b/CoV.xlsx
@@ -9,17 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -43,6 +38,18 @@
   </si>
   <si>
     <t>numberProduction</t>
+  </si>
+  <si>
+    <t>KHAMIDULLIN</t>
+  </si>
+  <si>
+    <t>RUSTEM</t>
+  </si>
+  <si>
+    <t>KUZNETSOV</t>
+  </si>
+  <si>
+    <t>IURII</t>
   </si>
 </sst>
 </file>
@@ -135,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +151,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,22 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="2" customWidth="1"/>
     <col min="9" max="1009" width="8.5703125" customWidth="1"/>
     <col min="1010" max="1025" width="9.140625" customWidth="1"/>
   </cols>
@@ -580,71 +602,51 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>24342</v>
+      </c>
+      <c r="E2" s="7">
+        <v>755848299</v>
+      </c>
       <c r="F2" s="6">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="G2" s="8">
-        <v>1710</v>
+        <v>1978</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6">
-        <v>44466</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1711</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6">
-        <v>44473</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2371</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6">
-        <v>44473</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2372</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11">
+        <v>22609</v>
+      </c>
+      <c r="E3" s="12">
+        <v>660975609</v>
+      </c>
+      <c r="F3" s="11">
+        <v>44471</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2241</v>
+      </c>
+      <c r="H3" s="13">
         <v>1</v>
       </c>
     </row>
